--- a/data/final/Ip_Sales_Details_Final.xlsx
+++ b/data/final/Ip_Sales_Details_Final.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramya\Desktop\med_data\data\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Srinivas\Ramya\Projects\dash-sims\data\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1685BC6F-0631-4468-A3AD-78D4D20A507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF280149-5FC9-4DA5-9DDF-935EB34EBCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="288" windowWidth="10428" windowHeight="11724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6633,7 +6646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6656,16 +6669,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7004,15 +7031,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="5" width="52.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" customWidth="1"/>
+    <col min="8" max="8" width="58.54296875" customWidth="1"/>
+    <col min="9" max="9" width="38.453125" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" customWidth="1"/>
+    <col min="11" max="11" width="30.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7061,8 +7101,9 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -7112,7 +7153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -7162,7 +7203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -7212,7 +7253,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -7262,7 +7303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -7312,7 +7353,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>106</v>
       </c>
@@ -7362,7 +7403,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -7412,7 +7453,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -7462,7 +7503,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -7512,7 +7553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -7562,7 +7603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -7612,7 +7653,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -7662,7 +7703,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -7712,7 +7753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114</v>
       </c>
@@ -7762,7 +7803,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -7812,7 +7853,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>116</v>
       </c>
@@ -7862,7 +7903,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>117</v>
       </c>
@@ -7912,7 +7953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>118</v>
       </c>
@@ -7962,7 +8003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>119</v>
       </c>
@@ -8012,7 +8053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>120</v>
       </c>
@@ -8062,7 +8103,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>121</v>
       </c>
@@ -8112,7 +8153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -8162,7 +8203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123</v>
       </c>
@@ -8212,7 +8253,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -8262,7 +8303,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>125</v>
       </c>
@@ -8312,7 +8353,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>126</v>
       </c>
@@ -8362,7 +8403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>127</v>
       </c>
@@ -8412,7 +8453,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>128</v>
       </c>
@@ -8462,7 +8503,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>129</v>
       </c>
@@ -8512,7 +8553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -8562,7 +8603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>131</v>
       </c>
@@ -8612,7 +8653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>132</v>
       </c>
@@ -8662,7 +8703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>133</v>
       </c>
@@ -8712,7 +8753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8762,7 +8803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>135</v>
       </c>
@@ -8812,7 +8853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>136</v>
       </c>
@@ -8862,7 +8903,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>137</v>
       </c>
@@ -8912,7 +8953,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>138</v>
       </c>
@@ -8962,7 +9003,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>139</v>
       </c>
@@ -9012,7 +9053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>140</v>
       </c>
@@ -9062,7 +9103,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>141</v>
       </c>
@@ -9112,7 +9153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>142</v>
       </c>
@@ -9162,7 +9203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>143</v>
       </c>
@@ -9212,7 +9253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>144</v>
       </c>
@@ -9262,7 +9303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>145</v>
       </c>
@@ -9312,7 +9353,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>146</v>
       </c>
@@ -9362,7 +9403,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>147</v>
       </c>
@@ -9412,7 +9453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>148</v>
       </c>
@@ -9462,7 +9503,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>149</v>
       </c>
@@ -9512,7 +9553,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>150</v>
       </c>
@@ -9562,7 +9603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>151</v>
       </c>
@@ -9612,7 +9653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>152</v>
       </c>
@@ -9662,7 +9703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>153</v>
       </c>
@@ -9712,7 +9753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>154</v>
       </c>
@@ -9762,7 +9803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>155</v>
       </c>
@@ -9812,7 +9853,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>156</v>
       </c>
@@ -9862,7 +9903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>157</v>
       </c>
@@ -9912,7 +9953,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>158</v>
       </c>
@@ -9962,7 +10003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>159</v>
       </c>
@@ -10012,7 +10053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>160</v>
       </c>
@@ -10062,7 +10103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>161</v>
       </c>
@@ -10112,7 +10153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>162</v>
       </c>
@@ -10162,7 +10203,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>163</v>
       </c>
@@ -10212,7 +10253,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>164</v>
       </c>
@@ -10262,7 +10303,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>165</v>
       </c>
@@ -10312,7 +10353,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>166</v>
       </c>
@@ -10362,7 +10403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>167</v>
       </c>
@@ -10412,7 +10453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>168</v>
       </c>
@@ -10462,7 +10503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>169</v>
       </c>
@@ -10512,7 +10553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>170</v>
       </c>
@@ -10562,7 +10603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>171</v>
       </c>
@@ -10612,7 +10653,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>172</v>
       </c>
@@ -10662,7 +10703,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>173</v>
       </c>
@@ -10712,7 +10753,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>174</v>
       </c>
@@ -10762,7 +10803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>175</v>
       </c>
@@ -10812,7 +10853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>176</v>
       </c>
@@ -10862,7 +10903,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>177</v>
       </c>
@@ -10912,7 +10953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>178</v>
       </c>
@@ -10962,7 +11003,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>179</v>
       </c>
@@ -11012,7 +11053,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>180</v>
       </c>
@@ -11062,7 +11103,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>181</v>
       </c>
@@ -11112,7 +11153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>182</v>
       </c>
@@ -11162,7 +11203,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>183</v>
       </c>
@@ -11212,7 +11253,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>184</v>
       </c>
@@ -11262,7 +11303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>185</v>
       </c>
@@ -11312,7 +11353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>186</v>
       </c>
@@ -11362,7 +11403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>187</v>
       </c>
@@ -11412,7 +11453,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>188</v>
       </c>
@@ -11462,7 +11503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>189</v>
       </c>
@@ -11512,7 +11553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>190</v>
       </c>
@@ -11562,7 +11603,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>191</v>
       </c>
@@ -11612,7 +11653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>192</v>
       </c>
@@ -11662,7 +11703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>193</v>
       </c>
@@ -11712,7 +11753,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>194</v>
       </c>
@@ -11762,7 +11803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>195</v>
       </c>
@@ -11812,7 +11853,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>196</v>
       </c>
@@ -11862,7 +11903,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>197</v>
       </c>
@@ -11912,7 +11953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>198</v>
       </c>
@@ -11962,7 +12003,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>199</v>
       </c>
@@ -12012,7 +12053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>200</v>
       </c>
@@ -12062,7 +12103,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>201</v>
       </c>
@@ -12112,7 +12153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202</v>
       </c>
@@ -12162,7 +12203,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>203</v>
       </c>
@@ -12212,7 +12253,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>204</v>
       </c>
@@ -12262,7 +12303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>205</v>
       </c>
@@ -12312,7 +12353,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>206</v>
       </c>
@@ -12362,7 +12403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>207</v>
       </c>
@@ -12412,7 +12453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>208</v>
       </c>
@@ -12462,7 +12503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>209</v>
       </c>
@@ -12512,7 +12553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>210</v>
       </c>
@@ -12562,7 +12603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>211</v>
       </c>
@@ -12612,7 +12653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>212</v>
       </c>
@@ -12662,7 +12703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>213</v>
       </c>
@@ -12712,7 +12753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>214</v>
       </c>
@@ -12762,7 +12803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>215</v>
       </c>
@@ -12812,7 +12853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>216</v>
       </c>
@@ -12862,7 +12903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>217</v>
       </c>
@@ -12912,7 +12953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>218</v>
       </c>
@@ -12962,7 +13003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>219</v>
       </c>
@@ -13012,7 +13053,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>220</v>
       </c>
@@ -13062,7 +13103,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>221</v>
       </c>
@@ -13112,7 +13153,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>222</v>
       </c>
@@ -13162,7 +13203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>223</v>
       </c>
@@ -13212,7 +13253,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>224</v>
       </c>
@@ -13262,7 +13303,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>225</v>
       </c>
@@ -13312,7 +13353,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>226</v>
       </c>
@@ -13362,7 +13403,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>227</v>
       </c>
@@ -13412,7 +13453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>228</v>
       </c>
@@ -13462,7 +13503,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>229</v>
       </c>
@@ -13512,7 +13553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>230</v>
       </c>
@@ -13562,7 +13603,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>231</v>
       </c>
@@ -13612,7 +13653,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>232</v>
       </c>
@@ -13662,7 +13703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>233</v>
       </c>
@@ -13712,7 +13753,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>234</v>
       </c>
@@ -13762,7 +13803,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>235</v>
       </c>
@@ -13812,7 +13853,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>236</v>
       </c>
@@ -13862,7 +13903,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>237</v>
       </c>
@@ -13912,7 +13953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>238</v>
       </c>
@@ -13962,7 +14003,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>239</v>
       </c>
@@ -14012,7 +14053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>240</v>
       </c>
@@ -14062,7 +14103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>241</v>
       </c>
@@ -14112,7 +14153,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>242</v>
       </c>
@@ -14162,7 +14203,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>243</v>
       </c>
@@ -14212,7 +14253,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>244</v>
       </c>
@@ -14262,7 +14303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>245</v>
       </c>
@@ -14312,7 +14353,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>246</v>
       </c>
@@ -14362,7 +14403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>247</v>
       </c>
@@ -14412,7 +14453,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>248</v>
       </c>
@@ -14462,7 +14503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>249</v>
       </c>
@@ -14512,7 +14553,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>250</v>
       </c>
@@ -14562,7 +14603,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>251</v>
       </c>
@@ -14612,7 +14653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>252</v>
       </c>
@@ -14662,7 +14703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>253</v>
       </c>
@@ -14712,7 +14753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>254</v>
       </c>
@@ -14762,7 +14803,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>255</v>
       </c>
@@ -14812,7 +14853,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>256</v>
       </c>
@@ -14862,7 +14903,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>257</v>
       </c>
@@ -14912,7 +14953,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>258</v>
       </c>
@@ -14962,7 +15003,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>259</v>
       </c>
@@ -15012,7 +15053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>260</v>
       </c>
@@ -15062,7 +15103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>261</v>
       </c>
@@ -15112,7 +15153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>262</v>
       </c>
@@ -15162,7 +15203,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>263</v>
       </c>
@@ -15212,7 +15253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>264</v>
       </c>
@@ -15262,7 +15303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>265</v>
       </c>
@@ -15312,7 +15353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>266</v>
       </c>
@@ -15362,7 +15403,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>267</v>
       </c>
@@ -15412,7 +15453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>268</v>
       </c>
@@ -15462,7 +15503,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>269</v>
       </c>
@@ -15512,7 +15553,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>270</v>
       </c>
@@ -15562,7 +15603,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>271</v>
       </c>
@@ -15612,7 +15653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>272</v>
       </c>
@@ -15662,7 +15703,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>273</v>
       </c>
@@ -15712,7 +15753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>274</v>
       </c>
@@ -15762,7 +15803,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>275</v>
       </c>
@@ -15812,7 +15853,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>276</v>
       </c>
@@ -15862,7 +15903,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>277</v>
       </c>
@@ -15912,7 +15953,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>278</v>
       </c>
@@ -15962,7 +16003,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>279</v>
       </c>
@@ -16012,7 +16053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>280</v>
       </c>
@@ -16062,7 +16103,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>281</v>
       </c>
@@ -16112,7 +16153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>282</v>
       </c>
@@ -16162,7 +16203,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>283</v>
       </c>
@@ -16212,7 +16253,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>284</v>
       </c>
@@ -16262,7 +16303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>285</v>
       </c>
@@ -16312,7 +16353,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>286</v>
       </c>
@@ -16362,7 +16403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>287</v>
       </c>
@@ -16412,7 +16453,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>288</v>
       </c>
@@ -16462,7 +16503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>289</v>
       </c>
@@ -16512,7 +16553,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>290</v>
       </c>
@@ -16562,7 +16603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>291</v>
       </c>
@@ -16612,7 +16653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>292</v>
       </c>
@@ -16662,7 +16703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>293</v>
       </c>
@@ -16712,7 +16753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>294</v>
       </c>
@@ -16762,7 +16803,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>295</v>
       </c>
@@ -16812,7 +16853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>296</v>
       </c>
@@ -16862,7 +16903,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>297</v>
       </c>
@@ -16912,7 +16953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>298</v>
       </c>
@@ -16962,7 +17003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>299</v>
       </c>
@@ -17012,7 +17053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>300</v>
       </c>
@@ -17062,7 +17103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>301</v>
       </c>
@@ -17112,7 +17153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>302</v>
       </c>
@@ -17162,7 +17203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>303</v>
       </c>
@@ -17212,7 +17253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>304</v>
       </c>
@@ -17262,7 +17303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>305</v>
       </c>
@@ -17312,7 +17353,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>306</v>
       </c>
@@ -17362,7 +17403,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>307</v>
       </c>
@@ -17412,7 +17453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>308</v>
       </c>
@@ -17462,7 +17503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>309</v>
       </c>
@@ -17512,7 +17553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>310</v>
       </c>
@@ -17562,7 +17603,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>311</v>
       </c>
@@ -17612,7 +17653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>312</v>
       </c>
@@ -17662,7 +17703,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>313</v>
       </c>
@@ -17712,7 +17753,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>314</v>
       </c>
@@ -17762,7 +17803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>315</v>
       </c>
@@ -17812,7 +17853,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>316</v>
       </c>
@@ -17862,7 +17903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>317</v>
       </c>
@@ -17912,7 +17953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>318</v>
       </c>
@@ -17962,7 +18003,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>319</v>
       </c>
@@ -18012,7 +18053,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>320</v>
       </c>
@@ -18062,7 +18103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>321</v>
       </c>
@@ -18112,7 +18153,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>322</v>
       </c>
@@ -18162,7 +18203,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>323</v>
       </c>
@@ -18212,7 +18253,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>324</v>
       </c>
@@ -18262,7 +18303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>325</v>
       </c>
@@ -18312,7 +18353,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>326</v>
       </c>
@@ -18362,7 +18403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>327</v>
       </c>
@@ -18412,7 +18453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>328</v>
       </c>
@@ -18462,7 +18503,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>329</v>
       </c>
@@ -18512,7 +18553,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>330</v>
       </c>
@@ -18562,7 +18603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>331</v>
       </c>
@@ -18612,7 +18653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>332</v>
       </c>
@@ -18662,7 +18703,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>333</v>
       </c>
@@ -18712,7 +18753,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>334</v>
       </c>
@@ -18762,7 +18803,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>335</v>
       </c>
@@ -18812,7 +18853,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>336</v>
       </c>
@@ -18862,7 +18903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>337</v>
       </c>
@@ -18912,7 +18953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>338</v>
       </c>
@@ -18962,7 +19003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>339</v>
       </c>
@@ -19012,7 +19053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>340</v>
       </c>
@@ -19062,7 +19103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>341</v>
       </c>
@@ -19112,7 +19153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>342</v>
       </c>
@@ -19162,7 +19203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>343</v>
       </c>
@@ -19212,7 +19253,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>344</v>
       </c>
@@ -19262,7 +19303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>345</v>
       </c>
@@ -19312,7 +19353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>346</v>
       </c>
@@ -19362,7 +19403,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>347</v>
       </c>
@@ -19412,7 +19453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>348</v>
       </c>
@@ -19462,7 +19503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>349</v>
       </c>
@@ -19512,7 +19553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>350</v>
       </c>
@@ -19562,7 +19603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>351</v>
       </c>
@@ -19612,7 +19653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>352</v>
       </c>
@@ -19662,7 +19703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>353</v>
       </c>
@@ -19712,7 +19753,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>354</v>
       </c>
@@ -19762,7 +19803,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>355</v>
       </c>
@@ -19812,7 +19853,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>356</v>
       </c>
@@ -19862,7 +19903,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>357</v>
       </c>
@@ -19912,7 +19953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>358</v>
       </c>
@@ -19962,7 +20003,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>359</v>
       </c>
@@ -20012,7 +20053,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>360</v>
       </c>
@@ -20062,7 +20103,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>361</v>
       </c>
@@ -20112,7 +20153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>362</v>
       </c>
@@ -20162,7 +20203,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>363</v>
       </c>
@@ -20212,7 +20253,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>364</v>
       </c>
@@ -20262,7 +20303,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>365</v>
       </c>
@@ -20312,7 +20353,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>366</v>
       </c>
@@ -20362,7 +20403,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>367</v>
       </c>
@@ -20412,7 +20453,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>368</v>
       </c>
@@ -20462,7 +20503,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>369</v>
       </c>
@@ -20512,7 +20553,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>370</v>
       </c>
@@ -20562,7 +20603,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>371</v>
       </c>
@@ -20612,7 +20653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>372</v>
       </c>
@@ -20662,7 +20703,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>373</v>
       </c>
@@ -20712,7 +20753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>374</v>
       </c>
@@ -20762,7 +20803,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>375</v>
       </c>
@@ -20812,7 +20853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>376</v>
       </c>
@@ -20862,7 +20903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>377</v>
       </c>
@@ -20912,7 +20953,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>378</v>
       </c>
@@ -20962,7 +21003,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>379</v>
       </c>
@@ -21012,7 +21053,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>380</v>
       </c>
@@ -21062,7 +21103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>381</v>
       </c>
@@ -21112,7 +21153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>382</v>
       </c>
@@ -21162,7 +21203,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>383</v>
       </c>
@@ -21212,7 +21253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>384</v>
       </c>
@@ -21262,7 +21303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>385</v>
       </c>
@@ -21312,7 +21353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>386</v>
       </c>
@@ -21362,7 +21403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>387</v>
       </c>
@@ -21412,7 +21453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>388</v>
       </c>
@@ -21462,7 +21503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>389</v>
       </c>
@@ -21512,7 +21553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>390</v>
       </c>
@@ -21562,7 +21603,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>391</v>
       </c>
@@ -21612,7 +21653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>392</v>
       </c>
@@ -21662,7 +21703,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>393</v>
       </c>
@@ -21712,7 +21753,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>394</v>
       </c>
@@ -21762,7 +21803,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>395</v>
       </c>
@@ -21812,7 +21853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>396</v>
       </c>
@@ -21862,7 +21903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>397</v>
       </c>
@@ -21912,7 +21953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>398</v>
       </c>
@@ -21962,7 +22003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>399</v>
       </c>
@@ -22012,7 +22053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>400</v>
       </c>
@@ -22062,7 +22103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>401</v>
       </c>
@@ -22112,7 +22153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>402</v>
       </c>
@@ -22162,7 +22203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>403</v>
       </c>
@@ -22212,7 +22253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>404</v>
       </c>
@@ -22262,7 +22303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>405</v>
       </c>
@@ -22312,7 +22353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>406</v>
       </c>
@@ -22362,7 +22403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>407</v>
       </c>
@@ -22412,7 +22453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>408</v>
       </c>
@@ -22462,7 +22503,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>409</v>
       </c>
@@ -22512,7 +22553,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>410</v>
       </c>
@@ -22562,7 +22603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>411</v>
       </c>
@@ -22612,7 +22653,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>412</v>
       </c>
@@ -22662,7 +22703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>413</v>
       </c>
@@ -22712,7 +22753,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>414</v>
       </c>
@@ -22762,7 +22803,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>415</v>
       </c>
@@ -22812,7 +22853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>416</v>
       </c>
@@ -22862,7 +22903,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>417</v>
       </c>
@@ -22912,7 +22953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>418</v>
       </c>
@@ -22962,7 +23003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>419</v>
       </c>
@@ -23012,7 +23053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>420</v>
       </c>
@@ -23062,7 +23103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>421</v>
       </c>
@@ -23112,7 +23153,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>422</v>
       </c>
@@ -23162,7 +23203,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>423</v>
       </c>
@@ -23212,7 +23253,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>424</v>
       </c>
@@ -23262,7 +23303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>425</v>
       </c>
@@ -23312,7 +23353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>426</v>
       </c>
@@ -23362,7 +23403,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>427</v>
       </c>
@@ -23412,7 +23453,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>428</v>
       </c>
@@ -23462,7 +23503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>429</v>
       </c>
@@ -23512,7 +23553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>430</v>
       </c>
@@ -23562,7 +23603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>431</v>
       </c>
@@ -23612,7 +23653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>432</v>
       </c>
@@ -23662,7 +23703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>433</v>
       </c>
@@ -23712,7 +23753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>434</v>
       </c>
@@ -23762,7 +23803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>435</v>
       </c>
@@ -23812,7 +23853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>436</v>
       </c>
@@ -23862,7 +23903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>437</v>
       </c>
@@ -23912,7 +23953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>438</v>
       </c>
@@ -23962,7 +24003,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>439</v>
       </c>
@@ -24012,7 +24053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>440</v>
       </c>
@@ -24062,7 +24103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>441</v>
       </c>
@@ -24112,7 +24153,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>442</v>
       </c>
@@ -24162,7 +24203,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>443</v>
       </c>
@@ -24212,7 +24253,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>444</v>
       </c>
@@ -24262,7 +24303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>445</v>
       </c>
@@ -24312,7 +24353,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>446</v>
       </c>
@@ -24362,7 +24403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>447</v>
       </c>
@@ -24412,7 +24453,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>448</v>
       </c>
@@ -24462,7 +24503,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>449</v>
       </c>
@@ -24512,7 +24553,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>450</v>
       </c>
@@ -24562,7 +24603,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>451</v>
       </c>
@@ -24612,7 +24653,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>452</v>
       </c>
@@ -24662,7 +24703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>453</v>
       </c>
@@ -24712,7 +24753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>454</v>
       </c>
@@ -24762,7 +24803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>455</v>
       </c>
@@ -24812,7 +24853,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>456</v>
       </c>
@@ -24862,7 +24903,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>457</v>
       </c>
@@ -24912,7 +24953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>458</v>
       </c>
@@ -24962,7 +25003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>459</v>
       </c>
@@ -25012,7 +25053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>460</v>
       </c>
@@ -25062,7 +25103,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>461</v>
       </c>
@@ -25112,7 +25153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>462</v>
       </c>
@@ -25162,7 +25203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>463</v>
       </c>
@@ -25212,7 +25253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>464</v>
       </c>
@@ -25262,7 +25303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>465</v>
       </c>
@@ -25312,7 +25353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>466</v>
       </c>
@@ -25362,7 +25403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>467</v>
       </c>
@@ -25412,7 +25453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>468</v>
       </c>
@@ -25462,7 +25503,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>469</v>
       </c>
@@ -25512,7 +25553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>470</v>
       </c>
@@ -25562,7 +25603,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>471</v>
       </c>
@@ -25612,7 +25653,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>472</v>
       </c>
@@ -25662,7 +25703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>473</v>
       </c>
@@ -25712,7 +25753,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>474</v>
       </c>
@@ -25762,7 +25803,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>475</v>
       </c>
@@ -25812,7 +25853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>476</v>
       </c>
@@ -25862,7 +25903,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>477</v>
       </c>
@@ -25912,7 +25953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>478</v>
       </c>
@@ -25962,7 +26003,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>479</v>
       </c>
@@ -26012,7 +26053,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>480</v>
       </c>
@@ -26062,7 +26103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>481</v>
       </c>
@@ -26112,7 +26153,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>482</v>
       </c>
@@ -26162,7 +26203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>483</v>
       </c>
@@ -26212,7 +26253,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>484</v>
       </c>
@@ -26262,7 +26303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>485</v>
       </c>
@@ -26312,7 +26353,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>486</v>
       </c>
@@ -26362,7 +26403,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>487</v>
       </c>
@@ -26412,7 +26453,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>488</v>
       </c>
@@ -26462,7 +26503,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>489</v>
       </c>
@@ -26512,7 +26553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>490</v>
       </c>
@@ -26562,7 +26603,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>491</v>
       </c>
@@ -26612,7 +26653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>492</v>
       </c>
@@ -26662,7 +26703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>493</v>
       </c>
@@ -26712,7 +26753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>494</v>
       </c>
@@ -26762,7 +26803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>495</v>
       </c>
@@ -26812,7 +26853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>496</v>
       </c>
@@ -26862,7 +26903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>497</v>
       </c>
@@ -26912,7 +26953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>498</v>
       </c>
@@ -26962,7 +27003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>499</v>
       </c>
@@ -27012,7 +27053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>500</v>
       </c>
@@ -27062,7 +27103,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>501</v>
       </c>
@@ -27112,7 +27153,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>502</v>
       </c>
@@ -27162,7 +27203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>503</v>
       </c>
@@ -27212,7 +27253,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>504</v>
       </c>
@@ -27262,7 +27303,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>505</v>
       </c>
@@ -27312,7 +27353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>506</v>
       </c>
@@ -27362,7 +27403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>507</v>
       </c>
@@ -27412,7 +27453,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>508</v>
       </c>
@@ -27462,7 +27503,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>509</v>
       </c>
@@ -27512,7 +27553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>510</v>
       </c>
@@ -27562,7 +27603,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>511</v>
       </c>
@@ -27612,7 +27653,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>512</v>
       </c>
@@ -27662,7 +27703,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>513</v>
       </c>
@@ -27712,7 +27753,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>514</v>
       </c>
@@ -27762,7 +27803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>515</v>
       </c>
@@ -27812,7 +27853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>516</v>
       </c>
@@ -27862,7 +27903,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>517</v>
       </c>
@@ -27912,7 +27953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>518</v>
       </c>
@@ -27962,7 +28003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>519</v>
       </c>
@@ -28012,7 +28053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>520</v>
       </c>
@@ -28062,7 +28103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>521</v>
       </c>
@@ -28112,7 +28153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>522</v>
       </c>
@@ -28162,7 +28203,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>523</v>
       </c>
@@ -28212,7 +28253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>524</v>
       </c>
@@ -28262,7 +28303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>525</v>
       </c>
@@ -28312,7 +28353,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>526</v>
       </c>
@@ -28362,7 +28403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>527</v>
       </c>
@@ -28412,7 +28453,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>528</v>
       </c>
@@ -28462,7 +28503,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>529</v>
       </c>
@@ -28512,7 +28553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>530</v>
       </c>
@@ -28562,7 +28603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>531</v>
       </c>
@@ -28612,7 +28653,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>532</v>
       </c>
@@ -28662,7 +28703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>533</v>
       </c>
@@ -28712,7 +28753,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>534</v>
       </c>
@@ -28762,7 +28803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>535</v>
       </c>
@@ -28812,7 +28853,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>536</v>
       </c>
@@ -28862,7 +28903,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>537</v>
       </c>
@@ -28912,7 +28953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>538</v>
       </c>
@@ -28962,7 +29003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>539</v>
       </c>
@@ -29012,7 +29053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>540</v>
       </c>
@@ -29062,7 +29103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>541</v>
       </c>
@@ -29112,7 +29153,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>542</v>
       </c>
@@ -29162,7 +29203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>543</v>
       </c>
@@ -29212,7 +29253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>544</v>
       </c>
@@ -29262,7 +29303,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>545</v>
       </c>
@@ -29312,7 +29353,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>546</v>
       </c>
@@ -29362,7 +29403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>547</v>
       </c>
@@ -29412,7 +29453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>548</v>
       </c>
@@ -29462,7 +29503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>549</v>
       </c>
@@ -29512,7 +29553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>550</v>
       </c>
@@ -29562,7 +29603,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>551</v>
       </c>
@@ -29612,7 +29653,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>552</v>
       </c>
@@ -29662,7 +29703,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>553</v>
       </c>
@@ -29712,7 +29753,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>554</v>
       </c>
@@ -29762,7 +29803,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>555</v>
       </c>
@@ -29812,7 +29853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>556</v>
       </c>
@@ -29862,7 +29903,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>557</v>
       </c>
@@ -29912,7 +29953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>558</v>
       </c>
@@ -29962,7 +30003,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>559</v>
       </c>
@@ -30012,7 +30053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>560</v>
       </c>
@@ -30062,7 +30103,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>561</v>
       </c>
@@ -30112,7 +30153,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>562</v>
       </c>
@@ -30162,7 +30203,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>563</v>
       </c>
@@ -30212,7 +30253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>564</v>
       </c>
@@ -30262,7 +30303,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>565</v>
       </c>
@@ -30312,7 +30353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>566</v>
       </c>
@@ -30362,7 +30403,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>567</v>
       </c>
@@ -30412,7 +30453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>568</v>
       </c>
@@ -30462,7 +30503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>569</v>
       </c>
@@ -30512,7 +30553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>570</v>
       </c>
@@ -30562,7 +30603,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>571</v>
       </c>
@@ -30612,7 +30653,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>572</v>
       </c>
@@ -30662,7 +30703,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>573</v>
       </c>
@@ -30712,7 +30753,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>574</v>
       </c>
@@ -30762,7 +30803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>575</v>
       </c>
@@ -30812,7 +30853,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>576</v>
       </c>
@@ -30862,7 +30903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>577</v>
       </c>
@@ -30912,7 +30953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>578</v>
       </c>
@@ -30962,7 +31003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>579</v>
       </c>
@@ -31012,7 +31053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>580</v>
       </c>
@@ -31062,7 +31103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>581</v>
       </c>
@@ -31112,7 +31153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>582</v>
       </c>
@@ -31162,7 +31203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>583</v>
       </c>
@@ -31212,7 +31253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>584</v>
       </c>
@@ -31262,7 +31303,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>585</v>
       </c>
@@ -31312,7 +31353,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>586</v>
       </c>
@@ -31362,7 +31403,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>587</v>
       </c>
@@ -31412,7 +31453,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>588</v>
       </c>
@@ -31462,7 +31503,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>589</v>
       </c>
@@ -31512,7 +31553,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>590</v>
       </c>
@@ -31562,7 +31603,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>591</v>
       </c>
@@ -31612,7 +31653,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>592</v>
       </c>
@@ -31662,7 +31703,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>593</v>
       </c>
@@ -31712,7 +31753,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>594</v>
       </c>
@@ -31762,7 +31803,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>595</v>
       </c>
@@ -31812,7 +31853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>596</v>
       </c>
@@ -31862,7 +31903,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>597</v>
       </c>
@@ -31912,7 +31953,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>598</v>
       </c>
@@ -31962,7 +32003,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>599</v>
       </c>
@@ -32012,7 +32053,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>600</v>
       </c>
@@ -32062,7 +32103,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>601</v>
       </c>
@@ -32112,7 +32153,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>602</v>
       </c>
@@ -32162,7 +32203,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>603</v>
       </c>
@@ -32212,7 +32253,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>604</v>
       </c>
@@ -32262,7 +32303,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>605</v>
       </c>
@@ -32312,7 +32353,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>606</v>
       </c>
@@ -32362,7 +32403,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>607</v>
       </c>
@@ -32412,7 +32453,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>608</v>
       </c>
@@ -32462,7 +32503,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>609</v>
       </c>
@@ -32512,7 +32553,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>610</v>
       </c>
@@ -32562,7 +32603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>611</v>
       </c>
@@ -32612,7 +32653,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>612</v>
       </c>
@@ -32662,7 +32703,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>613</v>
       </c>
@@ -32712,7 +32753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>614</v>
       </c>
@@ -32762,7 +32803,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>615</v>
       </c>
@@ -32812,7 +32853,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>616</v>
       </c>
@@ -32862,7 +32903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>617</v>
       </c>
@@ -32912,7 +32953,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>618</v>
       </c>
@@ -32962,7 +33003,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>619</v>
       </c>
@@ -33012,7 +33053,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>620</v>
       </c>
@@ -33062,7 +33103,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>621</v>
       </c>
@@ -33112,7 +33153,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>622</v>
       </c>
@@ -33162,7 +33203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>623</v>
       </c>
@@ -33212,7 +33253,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>624</v>
       </c>
@@ -33262,7 +33303,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>625</v>
       </c>
@@ -33312,7 +33353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>626</v>
       </c>
@@ -33362,7 +33403,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>627</v>
       </c>
@@ -33412,7 +33453,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>628</v>
       </c>
@@ -33462,7 +33503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>629</v>
       </c>
@@ -33512,7 +33553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>630</v>
       </c>
@@ -33562,7 +33603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>631</v>
       </c>
@@ -33612,7 +33653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>632</v>
       </c>
@@ -33662,7 +33703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>633</v>
       </c>
@@ -33712,7 +33753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>634</v>
       </c>
@@ -33762,7 +33803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>635</v>
       </c>
@@ -33812,7 +33853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>636</v>
       </c>
@@ -33862,7 +33903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>637</v>
       </c>
@@ -33912,7 +33953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>638</v>
       </c>
@@ -33962,7 +34003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>639</v>
       </c>
@@ -34012,7 +34053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>640</v>
       </c>
@@ -34062,7 +34103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>641</v>
       </c>
@@ -34112,7 +34153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>642</v>
       </c>
@@ -34162,7 +34203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>643</v>
       </c>
@@ -34212,7 +34253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>644</v>
       </c>
@@ -34262,7 +34303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>645</v>
       </c>
@@ -34312,7 +34353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>646</v>
       </c>
@@ -34362,7 +34403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>647</v>
       </c>
@@ -34412,7 +34453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>648</v>
       </c>
@@ -34462,7 +34503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>649</v>
       </c>
@@ -34512,7 +34553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>650</v>
       </c>
@@ -34562,7 +34603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>651</v>
       </c>
@@ -34612,7 +34653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>652</v>
       </c>
@@ -34662,7 +34703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>653</v>
       </c>
@@ -34712,7 +34753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>654</v>
       </c>
@@ -34762,7 +34803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>655</v>
       </c>
@@ -34812,7 +34853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>656</v>
       </c>
@@ -34862,7 +34903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>657</v>
       </c>
@@ -34912,7 +34953,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>658</v>
       </c>
@@ -34962,7 +35003,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>659</v>
       </c>
@@ -35012,7 +35053,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>660</v>
       </c>
@@ -35062,7 +35103,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>661</v>
       </c>
@@ -35112,7 +35153,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>662</v>
       </c>
@@ -35162,7 +35203,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>663</v>
       </c>
@@ -35212,7 +35253,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>664</v>
       </c>
@@ -35262,7 +35303,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>665</v>
       </c>
@@ -35312,7 +35353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>666</v>
       </c>
@@ -35362,7 +35403,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>667</v>
       </c>
@@ -35412,7 +35453,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>668</v>
       </c>
@@ -35462,7 +35503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>669</v>
       </c>
@@ -35512,7 +35553,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>670</v>
       </c>
@@ -35562,7 +35603,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>671</v>
       </c>
@@ -35612,7 +35653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>672</v>
       </c>
@@ -35662,7 +35703,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>673</v>
       </c>
@@ -35712,7 +35753,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>674</v>
       </c>
@@ -35762,7 +35803,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>675</v>
       </c>
@@ -35812,7 +35853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>676</v>
       </c>
@@ -35862,7 +35903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>677</v>
       </c>
@@ -35912,7 +35953,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>678</v>
       </c>
@@ -35962,7 +36003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>679</v>
       </c>
@@ -36012,7 +36053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>680</v>
       </c>
@@ -36062,7 +36103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>681</v>
       </c>
@@ -36112,7 +36153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>682</v>
       </c>
@@ -36162,7 +36203,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>683</v>
       </c>
@@ -36212,7 +36253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>684</v>
       </c>
@@ -36262,7 +36303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>685</v>
       </c>
@@ -36312,7 +36353,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>686</v>
       </c>
@@ -36362,7 +36403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>687</v>
       </c>
@@ -36412,7 +36453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>688</v>
       </c>
@@ -36462,7 +36503,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>689</v>
       </c>
@@ -36512,7 +36553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>690</v>
       </c>
@@ -36562,7 +36603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>691</v>
       </c>
@@ -36612,7 +36653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>692</v>
       </c>
@@ -36662,7 +36703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>693</v>
       </c>
@@ -36712,7 +36753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>694</v>
       </c>
@@ -36762,7 +36803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>695</v>
       </c>
@@ -36812,7 +36853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>696</v>
       </c>
@@ -36862,7 +36903,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>697</v>
       </c>
@@ -36912,7 +36953,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>698</v>
       </c>
@@ -36962,7 +37003,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>699</v>
       </c>
@@ -37012,7 +37053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>700</v>
       </c>
@@ -37062,7 +37103,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>701</v>
       </c>
@@ -37112,7 +37153,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>702</v>
       </c>
@@ -37162,7 +37203,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>703</v>
       </c>
@@ -37212,7 +37253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>704</v>
       </c>
@@ -37262,7 +37303,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>705</v>
       </c>
@@ -37312,7 +37353,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>706</v>
       </c>
@@ -37362,7 +37403,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>707</v>
       </c>
@@ -37412,7 +37453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>708</v>
       </c>
@@ -37462,7 +37503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>709</v>
       </c>
@@ -37512,7 +37553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>710</v>
       </c>
@@ -37562,7 +37603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>711</v>
       </c>
@@ -37612,7 +37653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>712</v>
       </c>
@@ -37662,7 +37703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>713</v>
       </c>
@@ -37712,7 +37753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>714</v>
       </c>
@@ -37762,7 +37803,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>715</v>
       </c>
@@ -37812,7 +37853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>716</v>
       </c>
@@ -37862,7 +37903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>717</v>
       </c>
@@ -37912,7 +37953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>718</v>
       </c>
@@ -37962,7 +38003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>719</v>
       </c>
@@ -38012,7 +38053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>720</v>
       </c>
@@ -38062,7 +38103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>721</v>
       </c>
@@ -38112,7 +38153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>722</v>
       </c>
@@ -38162,7 +38203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>723</v>
       </c>
@@ -38212,7 +38253,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>724</v>
       </c>
@@ -38262,7 +38303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>725</v>
       </c>
@@ -38312,7 +38353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>726</v>
       </c>
@@ -38362,7 +38403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>727</v>
       </c>
@@ -38412,7 +38453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>728</v>
       </c>
@@ -38462,7 +38503,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>729</v>
       </c>
@@ -38512,7 +38553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>730</v>
       </c>
@@ -38562,7 +38603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>731</v>
       </c>
@@ -38612,7 +38653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>732</v>
       </c>
@@ -38662,7 +38703,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>733</v>
       </c>
@@ -38712,7 +38753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>734</v>
       </c>
@@ -38762,7 +38803,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>735</v>
       </c>
@@ -38812,7 +38853,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>736</v>
       </c>
@@ -38862,7 +38903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>737</v>
       </c>
@@ -38912,7 +38953,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>738</v>
       </c>
@@ -38962,7 +39003,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>739</v>
       </c>
@@ -39012,7 +39053,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>740</v>
       </c>
@@ -39062,7 +39103,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>741</v>
       </c>
@@ -39112,7 +39153,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>742</v>
       </c>
@@ -39162,7 +39203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>743</v>
       </c>
@@ -39212,7 +39253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>744</v>
       </c>
@@ -39262,7 +39303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>745</v>
       </c>
@@ -39312,7 +39353,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>746</v>
       </c>
@@ -39362,7 +39403,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>747</v>
       </c>
@@ -39412,7 +39453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>748</v>
       </c>
@@ -39462,7 +39503,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>749</v>
       </c>
@@ -39512,7 +39553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>750</v>
       </c>
@@ -39562,7 +39603,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>751</v>
       </c>
@@ -39612,7 +39653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>752</v>
       </c>
@@ -39662,7 +39703,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>753</v>
       </c>
@@ -39712,7 +39753,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>754</v>
       </c>
@@ -39762,7 +39803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>755</v>
       </c>
@@ -39812,7 +39853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>756</v>
       </c>
@@ -39862,7 +39903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>757</v>
       </c>
@@ -39912,7 +39953,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>758</v>
       </c>
@@ -39962,7 +40003,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>759</v>
       </c>
@@ -40012,7 +40053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>760</v>
       </c>
@@ -40062,7 +40103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>761</v>
       </c>
@@ -40112,7 +40153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>762</v>
       </c>
@@ -40162,7 +40203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>763</v>
       </c>
@@ -40212,7 +40253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>764</v>
       </c>
@@ -40262,7 +40303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>765</v>
       </c>
@@ -40312,7 +40353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>766</v>
       </c>
@@ -40362,7 +40403,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>767</v>
       </c>
@@ -40412,7 +40453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>768</v>
       </c>
@@ -40462,7 +40503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>769</v>
       </c>
@@ -40512,7 +40553,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>770</v>
       </c>
@@ -40562,7 +40603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>771</v>
       </c>
@@ -40612,7 +40653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>772</v>
       </c>
@@ -40662,7 +40703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>773</v>
       </c>
@@ -40712,7 +40753,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>774</v>
       </c>
@@ -40762,7 +40803,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>775</v>
       </c>
@@ -40812,7 +40853,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>776</v>
       </c>
@@ -40862,7 +40903,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>777</v>
       </c>
@@ -40912,7 +40953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>778</v>
       </c>
@@ -40962,7 +41003,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>779</v>
       </c>
@@ -41012,7 +41053,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>780</v>
       </c>
@@ -41062,7 +41103,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>781</v>
       </c>
@@ -41112,7 +41153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>782</v>
       </c>
@@ -41162,7 +41203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>783</v>
       </c>
@@ -41212,7 +41253,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>784</v>
       </c>
@@ -41262,7 +41303,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>785</v>
       </c>
@@ -41312,7 +41353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>786</v>
       </c>
@@ -41362,7 +41403,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>787</v>
       </c>
@@ -41412,7 +41453,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>788</v>
       </c>
@@ -41462,7 +41503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>789</v>
       </c>
@@ -41512,7 +41553,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>790</v>
       </c>
@@ -41562,7 +41603,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>791</v>
       </c>
@@ -41612,7 +41653,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>792</v>
       </c>
@@ -41662,7 +41703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>793</v>
       </c>
@@ -41712,7 +41753,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="695" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>794</v>
       </c>
@@ -41762,7 +41803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>795</v>
       </c>
@@ -41812,7 +41853,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>796</v>
       </c>
@@ -41862,7 +41903,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>797</v>
       </c>
@@ -41912,7 +41953,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>798</v>
       </c>
@@ -41962,7 +42003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>799</v>
       </c>
@@ -42012,7 +42053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>800</v>
       </c>
@@ -42062,7 +42103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>801</v>
       </c>
@@ -42112,7 +42153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>802</v>
       </c>
@@ -42162,7 +42203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>803</v>
       </c>
@@ -42212,7 +42253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>804</v>
       </c>
@@ -42262,7 +42303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>805</v>
       </c>
@@ -42312,7 +42353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>806</v>
       </c>
@@ -42362,7 +42403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>807</v>
       </c>
@@ -42412,7 +42453,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="709" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>808</v>
       </c>
@@ -42462,7 +42503,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>809</v>
       </c>
@@ -42512,7 +42553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>810</v>
       </c>
@@ -42562,7 +42603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>811</v>
       </c>
@@ -42612,7 +42653,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>812</v>
       </c>
@@ -42662,7 +42703,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>813</v>
       </c>
@@ -42712,7 +42753,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>814</v>
       </c>
@@ -42762,7 +42803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>815</v>
       </c>
@@ -42812,7 +42853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>816</v>
       </c>
@@ -42862,7 +42903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>817</v>
       </c>
@@ -42912,7 +42953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="719" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>818</v>
       </c>
@@ -42962,7 +43003,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="720" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>819</v>
       </c>
@@ -43012,7 +43053,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="721" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>820</v>
       </c>
@@ -43062,7 +43103,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>821</v>
       </c>
@@ -43112,7 +43153,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>822</v>
       </c>
@@ -43162,7 +43203,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="724" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>823</v>
       </c>
@@ -43212,7 +43253,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="725" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>824</v>
       </c>
@@ -43262,7 +43303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="726" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>825</v>
       </c>
@@ -43312,7 +43353,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>826</v>
       </c>
@@ -43362,7 +43403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="728" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>827</v>
       </c>
@@ -43412,7 +43453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="729" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>828</v>
       </c>
@@ -43462,7 +43503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="730" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>829</v>
       </c>
@@ -43512,7 +43553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="731" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>830</v>
       </c>
@@ -43562,7 +43603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="732" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>831</v>
       </c>
@@ -43612,7 +43653,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="733" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>832</v>
       </c>
@@ -43662,7 +43703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="734" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>833</v>
       </c>
@@ -43712,7 +43753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="735" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>834</v>
       </c>
@@ -43762,7 +43803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="736" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>835</v>
       </c>
@@ -43812,7 +43853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="737" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>836</v>
       </c>
@@ -43862,7 +43903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="738" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>837</v>
       </c>
@@ -43912,7 +43953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="739" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>838</v>
       </c>
@@ -43962,7 +44003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="740" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>839</v>
       </c>
@@ -44012,7 +44053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="741" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>840</v>
       </c>
@@ -44062,7 +44103,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="742" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>841</v>
       </c>
@@ -44112,7 +44153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="743" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>842</v>
       </c>
@@ -44162,7 +44203,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="744" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>843</v>
       </c>
@@ -44212,7 +44253,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="745" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>844</v>
       </c>
@@ -44262,7 +44303,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="746" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>845</v>
       </c>
@@ -44312,7 +44353,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="747" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>846</v>
       </c>
@@ -44362,7 +44403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="748" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>847</v>
       </c>
@@ -44412,7 +44453,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="749" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>848</v>
       </c>
@@ -44462,7 +44503,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="750" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>849</v>
       </c>
@@ -44512,7 +44553,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="751" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>850</v>
       </c>
@@ -44562,7 +44603,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="752" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>851</v>
       </c>
@@ -44612,7 +44653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>852</v>
       </c>
@@ -44662,7 +44703,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="754" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>853</v>
       </c>
@@ -44712,7 +44753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="755" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>854</v>
       </c>
@@ -44762,7 +44803,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>855</v>
       </c>
@@ -44812,7 +44853,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>856</v>
       </c>
@@ -44862,7 +44903,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="758" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>857</v>
       </c>
@@ -44912,7 +44953,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>858</v>
       </c>
@@ -44962,7 +45003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>859</v>
       </c>
@@ -45012,7 +45053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="761" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>860</v>
       </c>
@@ -45062,7 +45103,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>861</v>
       </c>
@@ -45112,7 +45153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>862</v>
       </c>
@@ -45162,7 +45203,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="764" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>863</v>
       </c>
@@ -45212,7 +45253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="765" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>864</v>
       </c>
@@ -45262,7 +45303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="766" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>865</v>
       </c>
@@ -45312,7 +45353,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="767" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>866</v>
       </c>
@@ -45362,7 +45403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="768" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>867</v>
       </c>
@@ -45412,7 +45453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="769" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>868</v>
       </c>
@@ -45462,7 +45503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="770" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>869</v>
       </c>
@@ -45512,7 +45553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="771" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>870</v>
       </c>
@@ -45562,7 +45603,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="772" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>871</v>
       </c>
@@ -45612,7 +45653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="773" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>872</v>
       </c>
@@ -45662,7 +45703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="774" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>873</v>
       </c>
@@ -45712,7 +45753,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="775" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>874</v>
       </c>
@@ -45762,7 +45803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="776" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>875</v>
       </c>
@@ -45812,7 +45853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="777" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>876</v>
       </c>
@@ -45862,7 +45903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="778" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>877</v>
       </c>
@@ -45912,7 +45953,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="779" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>878</v>
       </c>
@@ -45962,7 +46003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="780" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>879</v>
       </c>
@@ -46012,7 +46053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="781" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>880</v>
       </c>
@@ -46062,7 +46103,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="782" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>881</v>
       </c>
@@ -46112,7 +46153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="783" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>882</v>
       </c>
@@ -46162,7 +46203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="784" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>883</v>
       </c>
@@ -46212,7 +46253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="785" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>884</v>
       </c>
@@ -46262,7 +46303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="786" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>885</v>
       </c>
@@ -46312,7 +46353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="787" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>886</v>
       </c>
@@ -46362,7 +46403,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="788" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>887</v>
       </c>
@@ -46412,7 +46453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="789" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>888</v>
       </c>
@@ -46462,7 +46503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="790" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>889</v>
       </c>
@@ -46512,7 +46553,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="791" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>890</v>
       </c>
@@ -46562,7 +46603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="792" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>891</v>
       </c>
@@ -46612,7 +46653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="793" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>892</v>
       </c>
@@ -46662,7 +46703,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="794" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>893</v>
       </c>
@@ -46712,7 +46753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="795" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>894</v>
       </c>
@@ -46762,7 +46803,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="796" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>895</v>
       </c>
@@ -46812,7 +46853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="797" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>896</v>
       </c>
@@ -46862,7 +46903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="798" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>897</v>
       </c>
@@ -46912,7 +46953,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="799" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>898</v>
       </c>
@@ -46962,7 +47003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="800" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>899</v>
       </c>
@@ -47012,7 +47053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="801" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>900</v>
       </c>
@@ -47062,7 +47103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="802" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>901</v>
       </c>
@@ -47112,7 +47153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="803" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>902</v>
       </c>
@@ -47162,7 +47203,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="804" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>903</v>
       </c>
@@ -47212,7 +47253,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="805" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>904</v>
       </c>
@@ -47262,7 +47303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="806" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>905</v>
       </c>
@@ -47312,7 +47353,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="807" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>906</v>
       </c>
@@ -47362,7 +47403,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="808" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>907</v>
       </c>
@@ -47412,7 +47453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="809" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>908</v>
       </c>
@@ -47462,7 +47503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="810" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>909</v>
       </c>
@@ -47512,7 +47553,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="811" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>910</v>
       </c>
@@ -47562,7 +47603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="812" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>911</v>
       </c>
@@ -47612,7 +47653,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="813" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>912</v>
       </c>
@@ -47662,7 +47703,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="814" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>913</v>
       </c>
@@ -47712,7 +47753,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="815" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>914</v>
       </c>
@@ -47762,7 +47803,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="816" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>915</v>
       </c>
@@ -47812,7 +47853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="817" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>916</v>
       </c>
@@ -47862,7 +47903,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="818" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>917</v>
       </c>
@@ -47912,7 +47953,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="819" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>918</v>
       </c>
@@ -47962,7 +48003,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="820" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>919</v>
       </c>
@@ -48012,7 +48053,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="821" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>920</v>
       </c>
@@ -48062,7 +48103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="822" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>921</v>
       </c>
@@ -48112,7 +48153,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="823" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>922</v>
       </c>
@@ -48162,7 +48203,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="824" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>923</v>
       </c>
@@ -48212,7 +48253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="825" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>924</v>
       </c>
@@ -48262,7 +48303,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="826" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>925</v>
       </c>
@@ -48312,7 +48353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="827" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>926</v>
       </c>
@@ -48362,7 +48403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="828" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>927</v>
       </c>
@@ -48412,7 +48453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="829" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>928</v>
       </c>
@@ -48462,7 +48503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="830" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>929</v>
       </c>
@@ -48512,7 +48553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="831" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>930</v>
       </c>
@@ -48562,7 +48603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="832" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>931</v>
       </c>
@@ -48612,7 +48653,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="833" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>932</v>
       </c>
@@ -48662,7 +48703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="834" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>933</v>
       </c>
@@ -48712,7 +48753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="835" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>934</v>
       </c>
@@ -48762,7 +48803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="836" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>935</v>
       </c>
@@ -48812,7 +48853,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="837" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>936</v>
       </c>
@@ -48862,7 +48903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="838" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>937</v>
       </c>
@@ -48912,7 +48953,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="839" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>938</v>
       </c>
@@ -48962,7 +49003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="840" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>939</v>
       </c>
@@ -49012,7 +49053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="841" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>940</v>
       </c>
@@ -49062,7 +49103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="842" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>941</v>
       </c>
@@ -49112,7 +49153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="843" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>942</v>
       </c>
@@ -49162,7 +49203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="844" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>943</v>
       </c>
@@ -49212,7 +49253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="845" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>944</v>
       </c>
@@ -49262,7 +49303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="846" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>945</v>
       </c>
@@ -49312,7 +49353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="847" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>946</v>
       </c>
@@ -49362,7 +49403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="848" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>947</v>
       </c>
@@ -49412,7 +49453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="849" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>948</v>
       </c>
@@ -49462,7 +49503,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="850" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>949</v>
       </c>
@@ -49512,7 +49553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="851" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>950</v>
       </c>
@@ -49562,7 +49603,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="852" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>951</v>
       </c>
@@ -49612,7 +49653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="853" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>952</v>
       </c>
@@ -49662,7 +49703,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="854" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>953</v>
       </c>
@@ -49712,7 +49753,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="855" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>954</v>
       </c>
@@ -49762,7 +49803,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="856" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>955</v>
       </c>
@@ -49812,7 +49853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="857" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>956</v>
       </c>
@@ -49862,7 +49903,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="858" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>957</v>
       </c>
@@ -49912,7 +49953,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="859" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>958</v>
       </c>
@@ -49962,7 +50003,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="860" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>959</v>
       </c>
@@ -50012,7 +50053,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="861" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>960</v>
       </c>
@@ -50062,7 +50103,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="862" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>961</v>
       </c>
@@ -50112,7 +50153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="863" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>962</v>
       </c>
@@ -50162,7 +50203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="864" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>963</v>
       </c>
@@ -50212,7 +50253,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="865" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>964</v>
       </c>
@@ -50262,7 +50303,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="866" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>965</v>
       </c>
@@ -50312,7 +50353,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="867" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>966</v>
       </c>
@@ -50362,7 +50403,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="868" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>967</v>
       </c>
@@ -50412,7 +50453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="869" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>968</v>
       </c>
@@ -50462,7 +50503,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="870" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>969</v>
       </c>
@@ -50512,7 +50553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="871" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>970</v>
       </c>
@@ -50562,7 +50603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="872" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>971</v>
       </c>
@@ -50612,7 +50653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="873" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>972</v>
       </c>
@@ -50662,7 +50703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="874" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>973</v>
       </c>
@@ -50712,7 +50753,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="875" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>974</v>
       </c>
@@ -50762,7 +50803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="876" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>975</v>
       </c>
@@ -50812,7 +50853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="877" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>976</v>
       </c>
@@ -50862,7 +50903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="878" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>977</v>
       </c>
@@ -50912,7 +50953,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="879" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>978</v>
       </c>
@@ -50962,7 +51003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="880" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>979</v>
       </c>
@@ -51012,7 +51053,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="881" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>980</v>
       </c>
@@ -51062,7 +51103,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="882" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A882">
         <v>981</v>
       </c>
@@ -51112,7 +51153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="883" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A883">
         <v>982</v>
       </c>
@@ -51162,7 +51203,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="884" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A884">
         <v>983</v>
       </c>
@@ -51212,7 +51253,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="885" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A885">
         <v>984</v>
       </c>
@@ -51262,7 +51303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="886" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A886">
         <v>985</v>
       </c>
@@ -51312,7 +51353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="887" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A887">
         <v>986</v>
       </c>
@@ -51362,7 +51403,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="888" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>987</v>
       </c>
@@ -51412,7 +51453,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="889" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A889">
         <v>988</v>
       </c>
@@ -51462,7 +51503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="890" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>989</v>
       </c>
@@ -51512,7 +51553,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="891" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>990</v>
       </c>
@@ -51562,7 +51603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="892" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>991</v>
       </c>
@@ -51612,7 +51653,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="893" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A893">
         <v>992</v>
       </c>
@@ -51662,7 +51703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="894" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A894">
         <v>993</v>
       </c>
@@ -51712,7 +51753,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="895" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A895">
         <v>994</v>
       </c>
@@ -51762,7 +51803,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="896" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A896">
         <v>995</v>
       </c>
@@ -51812,7 +51853,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="897" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A897">
         <v>996</v>
       </c>
@@ -51862,7 +51903,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="898" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>997</v>
       </c>
@@ -51912,7 +51953,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="899" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A899">
         <v>998</v>
       </c>
@@ -51962,7 +52003,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="900" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A900">
         <v>999</v>
       </c>
@@ -52012,7 +52053,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="901" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A901">
         <v>1000</v>
       </c>
@@ -52062,7 +52103,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="902" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>1001</v>
       </c>
@@ -52112,7 +52153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="903" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A903">
         <v>1002</v>
       </c>
@@ -52162,7 +52203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="904" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>1003</v>
       </c>
@@ -52212,7 +52253,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="905" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A905">
         <v>1004</v>
       </c>
@@ -52262,7 +52303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="906" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A906">
         <v>1005</v>
       </c>
@@ -52312,7 +52353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="907" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>1006</v>
       </c>
@@ -52362,7 +52403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="908" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A908">
         <v>1007</v>
       </c>
@@ -52412,7 +52453,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="909" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A909">
         <v>1008</v>
       </c>
@@ -52462,7 +52503,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="910" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>1009</v>
       </c>
@@ -52512,7 +52553,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="911" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A911">
         <v>1010</v>
       </c>
@@ -52562,7 +52603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="912" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A912">
         <v>1011</v>
       </c>
@@ -52612,7 +52653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="913" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>1012</v>
       </c>
@@ -52662,7 +52703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="914" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>1013</v>
       </c>
@@ -52712,7 +52753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="915" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A915">
         <v>1014</v>
       </c>
@@ -52762,7 +52803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="916" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>1015</v>
       </c>
@@ -52812,7 +52853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="917" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A917">
         <v>1016</v>
       </c>
@@ -52862,7 +52903,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="918" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A918">
         <v>1017</v>
       </c>
@@ -52912,7 +52953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="919" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A919">
         <v>1018</v>
       </c>
@@ -52962,7 +53003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="920" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A920">
         <v>1019</v>
       </c>
@@ -53012,7 +53053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="921" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A921">
         <v>1020</v>
       </c>
@@ -53062,7 +53103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="922" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A922">
         <v>1021</v>
       </c>
@@ -53112,7 +53153,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="923" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A923">
         <v>1022</v>
       </c>
@@ -53162,7 +53203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="924" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>1023</v>
       </c>
@@ -53212,7 +53253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="925" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A925">
         <v>1024</v>
       </c>
@@ -53262,7 +53303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="926" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A926">
         <v>1025</v>
       </c>
@@ -53312,7 +53353,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="927" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A927">
         <v>1026</v>
       </c>
@@ -53362,7 +53403,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="928" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>1027</v>
       </c>
@@ -53412,7 +53453,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="929" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A929">
         <v>1028</v>
       </c>
@@ -53462,7 +53503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="930" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A930">
         <v>1029</v>
       </c>
@@ -53512,7 +53553,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="931" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A931">
         <v>1030</v>
       </c>
@@ -53562,7 +53603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="932" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A932">
         <v>1031</v>
       </c>
@@ -53612,7 +53653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="933" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>1032</v>
       </c>
@@ -53662,7 +53703,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="934" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A934">
         <v>1033</v>
       </c>
@@ -53712,7 +53753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="935" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A935">
         <v>1034</v>
       </c>
@@ -53762,7 +53803,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="936" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A936">
         <v>1035</v>
       </c>
@@ -53812,7 +53853,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="937" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A937">
         <v>1036</v>
       </c>
@@ -53862,7 +53903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="938" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A938">
         <v>1037</v>
       </c>
@@ -53912,7 +53953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="939" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A939">
         <v>1038</v>
       </c>
@@ -53962,7 +54003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="940" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A940">
         <v>1039</v>
       </c>
@@ -54012,7 +54053,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="941" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A941">
         <v>1040</v>
       </c>
@@ -54062,7 +54103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="942" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A942">
         <v>1041</v>
       </c>
@@ -54112,7 +54153,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="943" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>1042</v>
       </c>
@@ -54162,7 +54203,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="944" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A944">
         <v>1043</v>
       </c>
@@ -54212,7 +54253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="945" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A945">
         <v>1044</v>
       </c>
@@ -54262,7 +54303,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="946" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A946">
         <v>1045</v>
       </c>
@@ -54312,7 +54353,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="947" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A947">
         <v>1046</v>
       </c>
@@ -54362,7 +54403,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="948" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>1047</v>
       </c>
@@ -54412,7 +54453,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="949" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A949">
         <v>1048</v>
       </c>
@@ -54462,7 +54503,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="950" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A950">
         <v>1049</v>
       </c>
@@ -54512,7 +54553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="951" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A951">
         <v>1050</v>
       </c>
@@ -54562,7 +54603,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="952" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A952">
         <v>1051</v>
       </c>
@@ -54612,7 +54653,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="953" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A953">
         <v>1052</v>
       </c>
@@ -54662,7 +54703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="954" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A954">
         <v>1053</v>
       </c>
@@ -54712,7 +54753,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="955" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A955">
         <v>1054</v>
       </c>
@@ -54762,7 +54803,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="956" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A956">
         <v>1055</v>
       </c>
@@ -54812,7 +54853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="957" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A957">
         <v>1056</v>
       </c>
@@ -54862,7 +54903,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="958" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A958">
         <v>1057</v>
       </c>
@@ -54912,7 +54953,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="959" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A959">
         <v>1058</v>
       </c>
@@ -54962,7 +55003,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="960" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A960">
         <v>1059</v>
       </c>
@@ -55012,7 +55053,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="961" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A961">
         <v>1060</v>
       </c>
@@ -55062,7 +55103,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="962" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A962">
         <v>1061</v>
       </c>
@@ -55112,7 +55153,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="963" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A963">
         <v>1062</v>
       </c>
@@ -55162,7 +55203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="964" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A964">
         <v>1063</v>
       </c>
@@ -55212,7 +55253,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="965" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A965">
         <v>1064</v>
       </c>
@@ -55262,7 +55303,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="966" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A966">
         <v>1065</v>
       </c>
@@ -55312,7 +55353,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="967" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A967">
         <v>1066</v>
       </c>
@@ -55362,7 +55403,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="968" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A968">
         <v>1067</v>
       </c>
@@ -55412,7 +55453,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="969" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A969">
         <v>1068</v>
       </c>
@@ -55462,7 +55503,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="970" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>1069</v>
       </c>
@@ -55512,7 +55553,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="971" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A971">
         <v>1070</v>
       </c>
@@ -55562,7 +55603,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="972" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A972">
         <v>1071</v>
       </c>
@@ -55612,7 +55653,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="973" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A973">
         <v>1072</v>
       </c>
@@ -55662,7 +55703,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="974" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>1073</v>
       </c>
@@ -55712,7 +55753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="975" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A975">
         <v>1074</v>
       </c>
@@ -55762,7 +55803,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="976" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>1075</v>
       </c>
@@ -55812,7 +55853,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="977" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A977">
         <v>1076</v>
       </c>
@@ -55862,7 +55903,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="978" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A978">
         <v>1077</v>
       </c>
@@ -55912,7 +55953,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="979" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A979">
         <v>1078</v>
       </c>
@@ -55962,7 +56003,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="980" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A980">
         <v>1079</v>
       </c>
@@ -56012,7 +56053,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="981" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A981">
         <v>1080</v>
       </c>
@@ -56062,7 +56103,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="982" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A982">
         <v>1081</v>
       </c>
@@ -56112,7 +56153,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="983" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A983">
         <v>1082</v>
       </c>
@@ -56162,7 +56203,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="984" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A984">
         <v>1083</v>
       </c>
@@ -56212,7 +56253,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="985" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A985">
         <v>1084</v>
       </c>
@@ -56262,7 +56303,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="986" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A986">
         <v>1085</v>
       </c>
@@ -56312,7 +56353,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="987" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A987">
         <v>1086</v>
       </c>
@@ -56362,7 +56403,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="988" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A988">
         <v>1087</v>
       </c>
@@ -56412,7 +56453,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="989" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A989">
         <v>1088</v>
       </c>
@@ -56462,7 +56503,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="990" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A990">
         <v>1089</v>
       </c>
@@ -56512,7 +56553,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="991" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A991">
         <v>1090</v>
       </c>
@@ -56562,7 +56603,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="992" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A992">
         <v>1091</v>
       </c>
@@ -56612,7 +56653,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="993" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A993">
         <v>1092</v>
       </c>
@@ -56662,7 +56703,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="994" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A994">
         <v>1093</v>
       </c>
@@ -56712,7 +56753,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="995" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A995">
         <v>1094</v>
       </c>
@@ -56762,7 +56803,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="996" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A996">
         <v>1095</v>
       </c>
@@ -56812,7 +56853,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="997" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A997">
         <v>1096</v>
       </c>
@@ -56862,7 +56903,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="998" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A998">
         <v>1097</v>
       </c>
@@ -56912,7 +56953,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="999" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A999">
         <v>1098</v>
       </c>
@@ -56962,7 +57003,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="1000" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1000">
         <v>1099</v>
       </c>
@@ -57012,7 +57053,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="1001" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1001">
         <v>1100</v>
       </c>
